--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_OrganizationCodeProfile_EditProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_OrganizationCodeProfile_EditProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93658F94-1199-41DC-A95A-638CCD1FF753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1602960B-82AB-4193-A9D3-C2AFE5A2339F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -506,7 +506,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
